--- a/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['11', '20']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
     <t>['3', '25']</t>
   </si>
   <si>
@@ -809,6 +812,9 @@
   </si>
   <si>
     <t>['32', '45+4', '51', '90+9']</t>
+  </si>
+  <si>
+    <t>['46', '64', '74']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1510,7 @@
         <v>1.38</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1605,7 +1611,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1796,7 +1802,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1987,7 +1993,7 @@
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2369,7 +2375,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2560,7 +2566,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2942,7 +2948,7 @@
         <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3515,7 +3521,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3793,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>0.5</v>
@@ -4470,7 +4476,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5425,7 +5431,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5897,7 +5903,7 @@
         <v>2.6</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6085,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT26">
         <v>1.6</v>
@@ -6380,7 +6386,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6571,7 +6577,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7043,7 +7049,7 @@
         <v>1.2</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU31">
         <v>0.95</v>
@@ -7144,7 +7150,7 @@
         <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7526,7 +7532,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7908,7 +7914,7 @@
         <v>104</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8290,7 +8296,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -8481,7 +8487,7 @@
         <v>107</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>10</v>
@@ -9332,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
         <v>0.33</v>
@@ -9436,7 +9442,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -9526,7 +9532,7 @@
         <v>0.7</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU44">
         <v>0.25</v>
@@ -10009,7 +10015,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10391,7 +10397,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -10582,7 +10588,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -11155,7 +11161,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11346,7 +11352,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11537,7 +11543,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11728,7 +11734,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -11919,7 +11925,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12110,7 +12116,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12197,7 +12203,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
         <v>2.11</v>
@@ -12683,7 +12689,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13065,7 +13071,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13447,7 +13453,7 @@
         <v>81</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13537,7 +13543,7 @@
         <v>1.22</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU65">
         <v>1.2</v>
@@ -13829,7 +13835,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14402,7 +14408,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -14975,7 +14981,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15357,7 +15363,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15739,7 +15745,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16121,7 +16127,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16312,7 +16318,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16885,7 +16891,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>10</v>
@@ -17163,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
         <v>0.2</v>
@@ -17267,7 +17273,7 @@
         <v>138</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17649,7 +17655,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17739,7 +17745,7 @@
         <v>1.89</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU87">
         <v>2.26</v>
@@ -17840,7 +17846,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18031,7 +18037,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18795,7 +18801,7 @@
         <v>81</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18986,7 +18992,7 @@
         <v>144</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19368,7 +19374,7 @@
         <v>82</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>12</v>
@@ -19559,7 +19565,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19941,7 +19947,7 @@
         <v>148</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20028,7 +20034,7 @@
         <v>2.17</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT99">
         <v>2.2</v>
@@ -20132,7 +20138,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20222,7 +20228,7 @@
         <v>1.4</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU100">
         <v>1.11</v>
@@ -20323,7 +20329,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20514,7 +20520,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20705,7 +20711,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21278,7 +21284,7 @@
         <v>154</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -22806,7 +22812,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22893,7 +22899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
         <v>1.89</v>
@@ -22997,7 +23003,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>1</v>
@@ -23379,7 +23385,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23469,7 +23475,7 @@
         <v>2.36</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU117">
         <v>1.9</v>
@@ -23761,7 +23767,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23952,7 +23958,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24143,7 +24149,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24230,7 +24236,7 @@
         <v>2.14</v>
       </c>
       <c r="AS121">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT121">
         <v>2.4</v>
@@ -24525,7 +24531,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24716,7 +24722,7 @@
         <v>114</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24907,7 +24913,7 @@
         <v>81</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25185,7 +25191,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT126">
         <v>0.9</v>
@@ -26053,7 +26059,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26244,7 +26250,7 @@
         <v>81</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26626,7 +26632,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27098,7 +27104,7 @@
         <v>1.3</v>
       </c>
       <c r="AT136">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU136">
         <v>1.2</v>
@@ -27581,7 +27587,7 @@
         <v>107</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28154,7 +28160,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28536,7 +28542,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28727,7 +28733,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28918,7 +28924,7 @@
         <v>82</v>
       </c>
       <c r="P146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>2</v>
@@ -29109,7 +29115,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29300,7 +29306,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29491,7 +29497,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -29682,7 +29688,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29873,7 +29879,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>9</v>
@@ -30446,7 +30452,7 @@
         <v>189</v>
       </c>
       <c r="P154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30828,7 +30834,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31019,7 +31025,7 @@
         <v>81</v>
       </c>
       <c r="P157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31161,6 +31167,197 @@
       </c>
       <c r="BK157">
         <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>4622034</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" t="s">
+        <v>77</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>191</v>
+      </c>
+      <c r="P158" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q158">
+        <v>7</v>
+      </c>
+      <c r="R158">
+        <v>1</v>
+      </c>
+      <c r="S158">
+        <v>8</v>
+      </c>
+      <c r="T158">
+        <v>3</v>
+      </c>
+      <c r="U158">
+        <v>2.1</v>
+      </c>
+      <c r="V158">
+        <v>3.4</v>
+      </c>
+      <c r="W158">
+        <v>1.43</v>
+      </c>
+      <c r="X158">
+        <v>2.6</v>
+      </c>
+      <c r="Y158">
+        <v>2.95</v>
+      </c>
+      <c r="Z158">
+        <v>1.34</v>
+      </c>
+      <c r="AA158">
+        <v>8</v>
+      </c>
+      <c r="AB158">
+        <v>1.06</v>
+      </c>
+      <c r="AC158">
+        <v>2.27</v>
+      </c>
+      <c r="AD158">
+        <v>3.34</v>
+      </c>
+      <c r="AE158">
+        <v>2.99</v>
+      </c>
+      <c r="AF158">
+        <v>1.03</v>
+      </c>
+      <c r="AG158">
+        <v>8.25</v>
+      </c>
+      <c r="AH158">
+        <v>1.33</v>
+      </c>
+      <c r="AI158">
+        <v>3</v>
+      </c>
+      <c r="AJ158">
+        <v>1.9</v>
+      </c>
+      <c r="AK158">
+        <v>1.8</v>
+      </c>
+      <c r="AL158">
+        <v>1.8</v>
+      </c>
+      <c r="AM158">
+        <v>1.88</v>
+      </c>
+      <c r="AN158">
+        <v>1.36</v>
+      </c>
+      <c r="AO158">
+        <v>1.32</v>
+      </c>
+      <c r="AP158">
+        <v>1.58</v>
+      </c>
+      <c r="AQ158">
+        <v>1.67</v>
+      </c>
+      <c r="AR158">
+        <v>1</v>
+      </c>
+      <c r="AS158">
+        <v>1.5</v>
+      </c>
+      <c r="AT158">
+        <v>1.2</v>
+      </c>
+      <c r="AU158">
+        <v>1.41</v>
+      </c>
+      <c r="AV158">
+        <v>1.29</v>
+      </c>
+      <c r="AW158">
+        <v>2.7</v>
+      </c>
+      <c r="AX158">
+        <v>1.64</v>
+      </c>
+      <c r="AY158">
+        <v>7.5</v>
+      </c>
+      <c r="AZ158">
+        <v>2.67</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>1.4</v>
+      </c>
+      <c r="BC158">
+        <v>1.76</v>
+      </c>
+      <c r="BD158">
+        <v>2.19</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>4</v>
+      </c>
+      <c r="BG158">
+        <v>2</v>
+      </c>
+      <c r="BH158">
+        <v>4</v>
+      </c>
+      <c r="BI158">
+        <v>0</v>
+      </c>
+      <c r="BJ158">
+        <v>8</v>
+      </c>
+      <c r="BK158">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -816,6 +816,9 @@
   <si>
     <t>['46', '64', '74']</t>
   </si>
+  <si>
+    <t>['45+7', '86', '90+7']</t>
+  </si>
 </sst>
 </file>
 
@@ -1176,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2080,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT5">
         <v>2.4</v>
@@ -2656,7 +2659,7 @@
         <v>1.4</v>
       </c>
       <c r="AT8">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -6282,7 +6285,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT27">
         <v>1.89</v>
@@ -6667,7 +6670,7 @@
         <v>1.4</v>
       </c>
       <c r="AT29">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU29">
         <v>1.65</v>
@@ -9914,7 +9917,7 @@
         <v>2.36</v>
       </c>
       <c r="AT46">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU46">
         <v>1.95</v>
@@ -10293,7 +10296,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT48">
         <v>1.09</v>
@@ -12397,7 +12400,7 @@
         <v>1.6</v>
       </c>
       <c r="AT59">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU59">
         <v>1.46</v>
@@ -13540,7 +13543,7 @@
         <v>1.25</v>
       </c>
       <c r="AS65">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT65">
         <v>1.2</v>
@@ -15068,7 +15071,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT73">
         <v>0.9</v>
@@ -15453,7 +15456,7 @@
         <v>0.7</v>
       </c>
       <c r="AT75">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU75">
         <v>0.36</v>
@@ -17936,7 +17939,7 @@
         <v>1.3</v>
       </c>
       <c r="AT88">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU88">
         <v>1.4</v>
@@ -18697,7 +18700,7 @@
         <v>1.5</v>
       </c>
       <c r="AS92">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT92">
         <v>1.6</v>
@@ -21371,7 +21374,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT106">
         <v>0.2</v>
@@ -21756,7 +21759,7 @@
         <v>1.3</v>
       </c>
       <c r="AT108">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU108">
         <v>1.11</v>
@@ -26146,7 +26149,7 @@
         <v>0.75</v>
       </c>
       <c r="AS131">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT131">
         <v>1</v>
@@ -26722,7 +26725,7 @@
         <v>1.6</v>
       </c>
       <c r="AT134">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU134">
         <v>1.7</v>
@@ -27486,7 +27489,7 @@
         <v>2.3</v>
       </c>
       <c r="AT138">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU138">
         <v>1.7</v>
@@ -27865,7 +27868,7 @@
         <v>0.43</v>
       </c>
       <c r="AS140">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT140">
         <v>0.33</v>
@@ -31345,19 +31348,210 @@
         <v>4</v>
       </c>
       <c r="BG158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH158">
+        <v>7</v>
+      </c>
+      <c r="BI158">
+        <v>0</v>
+      </c>
+      <c r="BJ158">
+        <v>11</v>
+      </c>
+      <c r="BK158">
         <v>4</v>
       </c>
-      <c r="BI158">
-        <v>0</v>
-      </c>
-      <c r="BJ158">
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>4622032</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>68</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>3</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>81</v>
+      </c>
+      <c r="P159" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q159">
         <v>8</v>
       </c>
-      <c r="BK158">
-        <v>2</v>
+      <c r="R159">
+        <v>7</v>
+      </c>
+      <c r="S159">
+        <v>15</v>
+      </c>
+      <c r="T159">
+        <v>3</v>
+      </c>
+      <c r="U159">
+        <v>2.1</v>
+      </c>
+      <c r="V159">
+        <v>3.2</v>
+      </c>
+      <c r="W159">
+        <v>1.4</v>
+      </c>
+      <c r="X159">
+        <v>2.7</v>
+      </c>
+      <c r="Y159">
+        <v>2.9</v>
+      </c>
+      <c r="Z159">
+        <v>1.34</v>
+      </c>
+      <c r="AA159">
+        <v>8</v>
+      </c>
+      <c r="AB159">
+        <v>1.08</v>
+      </c>
+      <c r="AC159">
+        <v>2.45</v>
+      </c>
+      <c r="AD159">
+        <v>3.25</v>
+      </c>
+      <c r="AE159">
+        <v>2.6</v>
+      </c>
+      <c r="AF159">
+        <v>1.05</v>
+      </c>
+      <c r="AG159">
+        <v>10</v>
+      </c>
+      <c r="AH159">
+        <v>1.3</v>
+      </c>
+      <c r="AI159">
+        <v>3.15</v>
+      </c>
+      <c r="AJ159">
+        <v>1.95</v>
+      </c>
+      <c r="AK159">
+        <v>1.75</v>
+      </c>
+      <c r="AL159">
+        <v>1.72</v>
+      </c>
+      <c r="AM159">
+        <v>2</v>
+      </c>
+      <c r="AN159">
+        <v>1.43</v>
+      </c>
+      <c r="AO159">
+        <v>1.31</v>
+      </c>
+      <c r="AP159">
+        <v>1.5</v>
+      </c>
+      <c r="AQ159">
+        <v>1.22</v>
+      </c>
+      <c r="AR159">
+        <v>1.22</v>
+      </c>
+      <c r="AS159">
+        <v>1.1</v>
+      </c>
+      <c r="AT159">
+        <v>1.4</v>
+      </c>
+      <c r="AU159">
+        <v>1.14</v>
+      </c>
+      <c r="AV159">
+        <v>1.21</v>
+      </c>
+      <c r="AW159">
+        <v>2.35</v>
+      </c>
+      <c r="AX159">
+        <v>1.91</v>
+      </c>
+      <c r="AY159">
+        <v>7.4</v>
+      </c>
+      <c r="AZ159">
+        <v>2.19</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>1.51</v>
+      </c>
+      <c r="BC159">
+        <v>1.79</v>
+      </c>
+      <c r="BD159">
+        <v>2.3</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>4</v>
+      </c>
+      <c r="BG159">
+        <v>8</v>
+      </c>
+      <c r="BH159">
+        <v>8</v>
+      </c>
+      <c r="BI159">
+        <v>3</v>
+      </c>
+      <c r="BJ159">
+        <v>12</v>
+      </c>
+      <c r="BK159">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.1</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.09</v>
@@ -3136,7 +3136,7 @@
         <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU13" t="n">
         <v>1.64</v>
@@ -3948,7 +3948,7 @@
         <v>2.3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT18" t="n">
         <v>2.11</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU23" t="n">
         <v>0.53</v>
@@ -5369,7 +5369,7 @@
         <v>1.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU24" t="n">
         <v>1.15</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT25" t="n">
         <v>1.2</v>
@@ -5978,7 +5978,7 @@
         <v>1.1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU27" t="n">
         <v>0.76</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7802,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU36" t="n">
         <v>1.96</v>
@@ -8211,7 +8211,7 @@
         <v>1.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU38" t="n">
         <v>1.05</v>
@@ -8411,10 +8411,10 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU39" t="n">
         <v>1.85</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU40" t="n">
         <v>1.5</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU41" t="n">
         <v>2.02</v>
@@ -10847,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU51" t="n">
         <v>2.14</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT52" t="n">
         <v>0.18</v>
@@ -11256,7 +11256,7 @@
         <v>1.2</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU53" t="n">
         <v>0.89</v>
@@ -11459,7 +11459,7 @@
         <v>1.45</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU54" t="n">
         <v>1.44</v>
@@ -11662,7 +11662,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU55" t="n">
         <v>1.16</v>
@@ -12065,7 +12065,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT57" t="n">
         <v>0.55</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT59" t="n">
         <v>1.4</v>
@@ -12880,7 +12880,7 @@
         <v>0.7</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU61" t="n">
         <v>0.37</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT62" t="n">
         <v>1.09</v>
@@ -13286,7 +13286,7 @@
         <v>1.4</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU63" t="n">
         <v>1.38</v>
@@ -13895,7 +13895,7 @@
         <v>1.45</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU66" t="n">
         <v>1.4</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
         <v>0.18</v>
@@ -15316,7 +15316,7 @@
         <v>1.1</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU73" t="n">
         <v>1.06</v>
@@ -15922,10 +15922,10 @@
         <v>2.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU76" t="n">
         <v>1.42</v>
@@ -16331,7 +16331,7 @@
         <v>2.3</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU78" t="n">
         <v>1.58</v>
@@ -16531,7 +16531,7 @@
         <v>2.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT79" t="n">
         <v>2.11</v>
@@ -16734,7 +16734,7 @@
         <v>0.8</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT80" t="n">
         <v>1.09</v>
@@ -16937,7 +16937,7 @@
         <v>0.2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT81" t="n">
         <v>0.55</v>
@@ -17143,7 +17143,7 @@
         <v>2.36</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU82" t="n">
         <v>1.87</v>
@@ -17346,7 +17346,7 @@
         <v>1.4</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU83" t="n">
         <v>1.09</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU85" t="n">
         <v>0.86</v>
@@ -18155,7 +18155,7 @@
         <v>1.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>1.2</v>
@@ -18764,10 +18764,10 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU90" t="n">
         <v>1.87</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19782,7 +19782,7 @@
         <v>1.4</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU95" t="n">
         <v>1.28</v>
@@ -19985,7 +19985,7 @@
         <v>2.36</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU96" t="n">
         <v>1.93</v>
@@ -20388,10 +20388,10 @@
         <v>1.2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU98" t="n">
         <v>1.58</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU99" t="n">
         <v>1.48</v>
@@ -21203,7 +21203,7 @@
         <v>0.7</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU102" t="n">
         <v>0.61</v>
@@ -21809,7 +21809,7 @@
         <v>0.33</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT105" t="n">
         <v>0.55</v>
@@ -22827,7 +22827,7 @@
         <v>1.2</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU110" t="n">
         <v>1.43</v>
@@ -23027,7 +23027,7 @@
         <v>0.86</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23230,10 +23230,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU112" t="n">
         <v>2.18</v>
@@ -23433,10 +23433,10 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU113" t="n">
         <v>1.9</v>
@@ -23639,7 +23639,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU114" t="n">
         <v>1.47</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT115" t="n">
         <v>1.6</v>
@@ -24451,7 +24451,7 @@
         <v>0.7</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU118" t="n">
         <v>0.61</v>
@@ -24651,7 +24651,7 @@
         <v>2.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT119" t="n">
         <v>2</v>
@@ -25060,7 +25060,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU121" t="n">
         <v>1.43</v>
@@ -25466,7 +25466,7 @@
         <v>0.7</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU123" t="n">
         <v>0.76</v>
@@ -25869,7 +25869,7 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT125" t="n">
         <v>2</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU126" t="n">
         <v>1.39</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU128" t="n">
         <v>1.02</v>
@@ -26887,7 +26887,7 @@
         <v>2.36</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU130" t="n">
         <v>1.84</v>
@@ -27293,7 +27293,7 @@
         <v>1.4</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU132" t="n">
         <v>1.39</v>
@@ -27493,10 +27493,10 @@
         <v>2.38</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU133" t="n">
         <v>1.72</v>
@@ -27696,7 +27696,7 @@
         <v>1.29</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT134" t="n">
         <v>1.4</v>
@@ -27899,7 +27899,7 @@
         <v>0.25</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT135" t="n">
         <v>0.18</v>
@@ -29120,7 +29120,7 @@
         <v>0.7</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU141" t="n">
         <v>0.85</v>
@@ -29526,7 +29526,7 @@
         <v>1.33</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU143" t="n">
         <v>1.41</v>
@@ -29726,7 +29726,7 @@
         <v>0.78</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT144" t="n">
         <v>1</v>
@@ -29929,7 +29929,7 @@
         <v>2.14</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT145" t="n">
         <v>2.11</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU146" t="n">
         <v>1.06</v>
@@ -30338,7 +30338,7 @@
         <v>1.27</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU147" t="n">
         <v>1.14</v>
@@ -30538,7 +30538,7 @@
         <v>0.22</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT148" t="n">
         <v>0.18</v>
@@ -30744,7 +30744,7 @@
         <v>1.45</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU149" t="n">
         <v>1.42</v>
@@ -31147,7 +31147,7 @@
         <v>1.5</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
         <v>1.6</v>
@@ -33435,6 +33435,1021 @@
       </c>
       <c r="BK162" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4622041</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45002.60416666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>9</v>
+      </c>
+      <c r="R163" t="n">
+        <v>6</v>
+      </c>
+      <c r="S163" t="n">
+        <v>15</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4622042</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>21</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>5</v>
+      </c>
+      <c r="N164" t="n">
+        <v>6</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['7', '50', '59', '90', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>3</v>
+      </c>
+      <c r="R164" t="n">
+        <v>6</v>
+      </c>
+      <c r="S164" t="n">
+        <v>9</v>
+      </c>
+      <c r="T164" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4622043</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45003.60416666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>4</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['25', '37']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['58', '75']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2</v>
+      </c>
+      <c r="R165" t="n">
+        <v>9</v>
+      </c>
+      <c r="S165" t="n">
+        <v>11</v>
+      </c>
+      <c r="T165" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4622044</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45003.60416666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['78', '86']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>13</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2</v>
+      </c>
+      <c r="S166" t="n">
+        <v>15</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X166" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4622045</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45003.60416666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Al Ittifaq</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>3</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['15', '34', '90']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>4</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1</v>
+      </c>
+      <c r="S167" t="n">
+        <v>5</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V167" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT11" t="n">
         <v>1.09</v>
@@ -3542,7 +3542,7 @@
         <v>1.45</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2.3</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU30" t="n">
         <v>1.91</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT39" t="n">
         <v>2.09</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -10847,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT51" t="n">
         <v>1.8</v>
@@ -12677,7 +12677,7 @@
         <v>2.36</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU60" t="n">
         <v>1.87</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT71" t="n">
         <v>0.18</v>
@@ -15519,7 +15519,7 @@
         <v>1.4</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU74" t="n">
         <v>1.28</v>
@@ -18155,7 +18155,7 @@
         <v>1.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT87" t="n">
         <v>1.2</v>
@@ -19376,7 +19376,7 @@
         <v>1.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU93" t="n">
         <v>1.4</v>
@@ -21809,7 +21809,7 @@
         <v>0.33</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT105" t="n">
         <v>0.55</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT112" t="n">
         <v>0.82</v>
@@ -24045,7 +24045,7 @@
         <v>1.4</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU116" t="n">
         <v>1.23</v>
@@ -28917,7 +28917,7 @@
         <v>1.1</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU140" t="n">
         <v>1.12</v>
@@ -31147,7 +31147,7 @@
         <v>1.5</v>
       </c>
       <c r="AS151" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT151" t="n">
         <v>1.6</v>
@@ -31556,7 +31556,7 @@
         <v>0.7</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU153" t="n">
         <v>0.95</v>
@@ -34395,7 +34395,7 @@
         <v>0.9</v>
       </c>
       <c r="AS167" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT167" t="n">
         <v>0.82</v>
@@ -34450,6 +34450,209 @@
       </c>
       <c r="BK167" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4622007</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45017.66666666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>16</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>2</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['39', '45+6']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>8</v>
+      </c>
+      <c r="R168" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" t="n">
+        <v>11</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.27</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>2.45</v>
@@ -1918,7 +1918,7 @@
         <v>1.45</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.64</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT10" t="n">
         <v>1.6</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT13" t="n">
         <v>1.8</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT14" t="n">
         <v>0.55</v>
@@ -3745,7 +3745,7 @@
         <v>1.2</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT17" t="n">
         <v>0.82</v>
@@ -4151,7 +4151,7 @@
         <v>1.45</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU18" t="n">
         <v>1.77</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.15</v>
@@ -5572,7 +5572,7 @@
         <v>2.64</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT26" t="n">
         <v>1.6</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>1.8</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU28" t="n">
         <v>0.36</v>
@@ -6384,7 +6384,7 @@
         <v>1.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU29" t="n">
         <v>1.65</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT30" t="n">
         <v>0.3</v>
@@ -6790,7 +6790,7 @@
         <v>1.2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU31" t="n">
         <v>0.95</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT32" t="n">
         <v>1.09</v>
@@ -7196,7 +7196,7 @@
         <v>2.09</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU33" t="n">
         <v>1.72</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT38" t="n">
         <v>1.8</v>
@@ -8414,7 +8414,7 @@
         <v>2.09</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU39" t="n">
         <v>1.85</v>
@@ -9023,7 +9023,7 @@
         <v>1.2</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU42" t="n">
         <v>0.84</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT43" t="n">
         <v>0.3</v>
@@ -9426,10 +9426,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU44" t="n">
         <v>0.25</v>
@@ -9632,7 +9632,7 @@
         <v>1.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.65</v>
@@ -9835,7 +9835,7 @@
         <v>2.36</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU46" t="n">
         <v>1.95</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT47" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU47" t="n">
         <v>1.24</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
         <v>1.09</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT49" t="n">
         <v>1.6</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT55" t="n">
         <v>0.82</v>
@@ -12268,10 +12268,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU58" t="n">
         <v>1.68</v>
@@ -12474,7 +12474,7 @@
         <v>1.45</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU59" t="n">
         <v>1.46</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT61" t="n">
         <v>0.82</v>
@@ -13286,7 +13286,7 @@
         <v>1.4</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.38</v>
@@ -13486,10 +13486,10 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU64" t="n">
         <v>1.53</v>
@@ -13689,10 +13689,10 @@
         <v>1.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU65" t="n">
         <v>1.2</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU70" t="n">
         <v>0.9399999999999999</v>
@@ -15113,7 +15113,7 @@
         <v>1.45</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU72" t="n">
         <v>1.57</v>
@@ -15313,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>0.82</v>
@@ -15719,10 +15719,10 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU75" t="n">
         <v>0.36</v>
@@ -16125,7 +16125,7 @@
         <v>1.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16328,10 +16328,10 @@
         <v>2.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.58</v>
@@ -16534,7 +16534,7 @@
         <v>2.64</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.64</v>
@@ -17343,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT83" t="n">
         <v>2.45</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT84" t="n">
         <v>0.18</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU85" t="n">
         <v>0.86</v>
@@ -17955,7 +17955,7 @@
         <v>1.27</v>
       </c>
       <c r="AT86" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU86" t="n">
         <v>1.18</v>
@@ -18158,7 +18158,7 @@
         <v>2.09</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU87" t="n">
         <v>2.26</v>
@@ -18361,7 +18361,7 @@
         <v>1.45</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU88" t="n">
         <v>1.4</v>
@@ -18561,10 +18561,10 @@
         <v>2.2</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.68</v>
@@ -19170,7 +19170,7 @@
         <v>1.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
         <v>1.6</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.18</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU97" t="n">
         <v>0.9399999999999999</v>
@@ -20591,10 +20591,10 @@
         <v>2.17</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU99" t="n">
         <v>1.48</v>
@@ -20794,10 +20794,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU100" t="n">
         <v>1.11</v>
@@ -21000,7 +21000,7 @@
         <v>1.27</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU101" t="n">
         <v>1.13</v>
@@ -21200,7 +21200,7 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT102" t="n">
         <v>2.45</v>
@@ -21609,7 +21609,7 @@
         <v>2.36</v>
       </c>
       <c r="AT104" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU104" t="n">
         <v>1.93</v>
@@ -22012,7 +22012,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>0.18</v>
@@ -22215,7 +22215,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT107" t="n">
         <v>1.09</v>
@@ -22421,7 +22421,7 @@
         <v>1.27</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU108" t="n">
         <v>1.11</v>
@@ -23636,7 +23636,7 @@
         <v>1.57</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT114" t="n">
         <v>1.8</v>
@@ -24042,7 +24042,7 @@
         <v>0.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT116" t="n">
         <v>0.3</v>
@@ -24248,7 +24248,7 @@
         <v>2.36</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU117" t="n">
         <v>1.9</v>
@@ -24448,10 +24448,10 @@
         <v>2.29</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU118" t="n">
         <v>0.61</v>
@@ -24654,7 +24654,7 @@
         <v>1.45</v>
       </c>
       <c r="AT119" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU119" t="n">
         <v>1.54</v>
@@ -25057,7 +25057,7 @@
         <v>2.14</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT121" t="n">
         <v>2.45</v>
@@ -25260,10 +25260,10 @@
         <v>0.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU122" t="n">
         <v>1.34</v>
@@ -25463,7 +25463,7 @@
         <v>1.75</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT123" t="n">
         <v>1.8</v>
@@ -25872,7 +25872,7 @@
         <v>1.55</v>
       </c>
       <c r="AT125" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU125" t="n">
         <v>1.76</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT126" t="n">
         <v>0.82</v>
@@ -26681,7 +26681,7 @@
         <v>0.25</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT129" t="n">
         <v>0.55</v>
@@ -27087,7 +27087,7 @@
         <v>0.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT131" t="n">
         <v>1</v>
@@ -27496,7 +27496,7 @@
         <v>2.64</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU133" t="n">
         <v>1.72</v>
@@ -27699,7 +27699,7 @@
         <v>1.55</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU134" t="n">
         <v>1.7</v>
@@ -28105,7 +28105,7 @@
         <v>1.27</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU136" t="n">
         <v>1.2</v>
@@ -28508,10 +28508,10 @@
         <v>1.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU138" t="n">
         <v>1.7</v>
@@ -28711,10 +28711,10 @@
         <v>0.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU139" t="n">
         <v>1.23</v>
@@ -28914,7 +28914,7 @@
         <v>0.43</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT140" t="n">
         <v>0.3</v>
@@ -29117,7 +29117,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT141" t="n">
         <v>0.82</v>
@@ -29323,7 +29323,7 @@
         <v>1.45</v>
       </c>
       <c r="AT142" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU142" t="n">
         <v>1.48</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT143" t="n">
         <v>0.82</v>
@@ -29932,7 +29932,7 @@
         <v>1.55</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU145" t="n">
         <v>1.67</v>
@@ -30744,7 +30744,7 @@
         <v>1.45</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU149" t="n">
         <v>1.42</v>
@@ -31353,7 +31353,7 @@
         <v>1.4</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU152" t="n">
         <v>1.41</v>
@@ -31553,7 +31553,7 @@
         <v>0.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT153" t="n">
         <v>0.3</v>
@@ -31959,10 +31959,10 @@
         <v>2.22</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT155" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU155" t="n">
         <v>1.75</v>
@@ -32162,7 +32162,7 @@
         <v>1.67</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT156" t="n">
         <v>1.6</v>
@@ -32368,7 +32368,7 @@
         <v>1.2</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU157" t="n">
         <v>1.57</v>
@@ -32568,10 +32568,10 @@
         <v>1</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU158" t="n">
         <v>1.41</v>
@@ -32771,10 +32771,10 @@
         <v>1.22</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU159" t="n">
         <v>1.14</v>
@@ -33177,7 +33177,7 @@
         <v>0.5</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT161" t="n">
         <v>0.55</v>
@@ -33586,7 +33586,7 @@
         <v>1.55</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU163" t="n">
         <v>1.67</v>
@@ -34653,6 +34653,1224 @@
       </c>
       <c r="BK168" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4622050</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45020.66666666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>22</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Al Adalh</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>5</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['40', '55', '66', '78', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>3</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1</v>
+      </c>
+      <c r="S169" t="n">
+        <v>4</v>
+      </c>
+      <c r="T169" t="n">
+        <v>9</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4622053</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45020.66666666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>22</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Dhamk</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>3</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['14', '37', '87']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>6</v>
+      </c>
+      <c r="R170" t="n">
+        <v>4</v>
+      </c>
+      <c r="S170" t="n">
+        <v>10</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V170" t="n">
+        <v>7</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4622013</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45020.66666666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['45+1', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>4</v>
+      </c>
+      <c r="R171" t="n">
+        <v>4</v>
+      </c>
+      <c r="S171" t="n">
+        <v>8</v>
+      </c>
+      <c r="T171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4622054</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45021.66666666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>22</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Al Ta'ee</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K172" t="n">
+        <v>4</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['24', '32']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['8', '28']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R172" t="n">
+        <v>4</v>
+      </c>
+      <c r="S172" t="n">
+        <v>5</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4622052</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45021.66666666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>6</v>
+      </c>
+      <c r="R173" t="n">
+        <v>4</v>
+      </c>
+      <c r="S173" t="n">
+        <v>10</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4622049</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45021.66666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>22</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Al Batin</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['20', '79']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>2</v>
+      </c>
+      <c r="R174" t="n">
+        <v>4</v>
+      </c>
+      <c r="S174" t="n">
+        <v>6</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.27</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT6" t="n">
         <v>0.18</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT7" t="n">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>1.45</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>1.77</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>2.36</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU30" t="n">
         <v>1.91</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT40" t="n">
         <v>0.82</v>
@@ -9226,7 +9226,7 @@
         <v>1.45</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9632,7 +9632,7 @@
         <v>1.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.65</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT46" t="n">
         <v>1.36</v>
@@ -12271,7 +12271,7 @@
         <v>1.45</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU58" t="n">
         <v>1.68</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT59" t="n">
         <v>1.36</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU60" t="n">
         <v>1.87</v>
@@ -15519,7 +15519,7 @@
         <v>1.4</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU74" t="n">
         <v>1.28</v>
@@ -15922,7 +15922,7 @@
         <v>2.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT76" t="n">
         <v>1.8</v>
@@ -16534,7 +16534,7 @@
         <v>2.64</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.64</v>
@@ -16734,7 +16734,7 @@
         <v>0.8</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT80" t="n">
         <v>1.09</v>
@@ -17140,7 +17140,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT82" t="n">
         <v>0.82</v>
@@ -18564,7 +18564,7 @@
         <v>2.36</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.68</v>
@@ -19376,7 +19376,7 @@
         <v>1.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU93" t="n">
         <v>1.4</v>
@@ -19982,7 +19982,7 @@
         <v>2.2</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT96" t="n">
         <v>2.45</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU97" t="n">
         <v>0.9399999999999999</v>
@@ -20388,7 +20388,7 @@
         <v>1.2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT98" t="n">
         <v>0.82</v>
@@ -21606,7 +21606,7 @@
         <v>2.4</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT104" t="n">
         <v>2.09</v>
@@ -24045,7 +24045,7 @@
         <v>1.36</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU116" t="n">
         <v>1.23</v>
@@ -24245,7 +24245,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT117" t="n">
         <v>1.09</v>
@@ -24651,7 +24651,7 @@
         <v>2.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT119" t="n">
         <v>2.09</v>
@@ -26884,7 +26884,7 @@
         <v>1.13</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT130" t="n">
         <v>0.82</v>
@@ -27899,7 +27899,7 @@
         <v>0.25</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT135" t="n">
         <v>0.18</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU140" t="n">
         <v>1.12</v>
@@ -29726,7 +29726,7 @@
         <v>0.78</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT144" t="n">
         <v>1</v>
@@ -29932,7 +29932,7 @@
         <v>1.55</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU145" t="n">
         <v>1.67</v>
@@ -30944,7 +30944,7 @@
         <v>0.22</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT150" t="n">
         <v>0.55</v>
@@ -31556,7 +31556,7 @@
         <v>0.91</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU153" t="n">
         <v>0.95</v>
@@ -31756,7 +31756,7 @@
         <v>1.2</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT154" t="n">
         <v>1.09</v>
@@ -32368,7 +32368,7 @@
         <v>1.2</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU157" t="n">
         <v>1.57</v>
@@ -33786,7 +33786,7 @@
         <v>2.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT164" t="n">
         <v>2.45</v>
@@ -34601,7 +34601,7 @@
         <v>2.09</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU168" t="n">
         <v>2.05</v>
@@ -35210,7 +35210,7 @@
         <v>1.2</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU171" t="n">
         <v>1.5</v>
@@ -35871,6 +35871,412 @@
       </c>
       <c r="BK174" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4622051</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45022.66666666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>22</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['65', '90+2']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>5</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1</v>
+      </c>
+      <c r="S175" t="n">
+        <v>6</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4622055</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45023.66666666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>22</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['55', '68', '90+7']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>3</v>
+      </c>
+      <c r="R176" t="n">
+        <v>6</v>
+      </c>
+      <c r="S176" t="n">
+        <v>9</v>
+      </c>
+      <c r="T176" t="n">
+        <v>3</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT2" t="n">
         <v>1.09</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.42</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>1.36</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>1.8</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.36</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT20" t="n">
         <v>0.82</v>
@@ -4963,7 +4963,7 @@
         <v>1.4</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0.53</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -6181,7 +6181,7 @@
         <v>0.91</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>0.36</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT31" t="n">
         <v>1.09</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT32" t="n">
         <v>1.09</v>
@@ -7802,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU36" t="n">
         <v>1.96</v>
@@ -8008,7 +8008,7 @@
         <v>1.27</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU37" t="n">
         <v>1.21</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT38" t="n">
         <v>1.8</v>
@@ -8820,7 +8820,7 @@
         <v>2.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU41" t="n">
         <v>2.02</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT42" t="n">
         <v>0.45</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU47" t="n">
         <v>1.24</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU52" t="n">
         <v>1.54</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT53" t="n">
         <v>0.82</v>
@@ -11459,7 +11459,7 @@
         <v>1.45</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.44</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU55" t="n">
         <v>1.16</v>
@@ -13895,7 +13895,7 @@
         <v>1.45</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU66" t="n">
         <v>1.4</v>
@@ -14298,7 +14298,7 @@
         <v>0.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT68" t="n">
         <v>0.55</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU70" t="n">
         <v>0.9399999999999999</v>
@@ -14910,7 +14910,7 @@
         <v>2.09</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU71" t="n">
         <v>1.94</v>
@@ -16125,7 +16125,7 @@
         <v>1.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16937,7 +16937,7 @@
         <v>0.2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT81" t="n">
         <v>0.55</v>
@@ -17143,7 +17143,7 @@
         <v>2.42</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU82" t="n">
         <v>1.87</v>
@@ -17343,10 +17343,10 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.09</v>
@@ -17549,7 +17549,7 @@
         <v>1.45</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU84" t="n">
         <v>1.45</v>
@@ -17955,7 +17955,7 @@
         <v>1.27</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU86" t="n">
         <v>1.18</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT90" t="n">
         <v>1.8</v>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT93" t="n">
         <v>0.27</v>
@@ -19576,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU94" t="n">
         <v>1.28</v>
@@ -19985,7 +19985,7 @@
         <v>2.42</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.93</v>
@@ -20391,7 +20391,7 @@
         <v>1.58</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU98" t="n">
         <v>1.58</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1.09</v>
@@ -21203,7 +21203,7 @@
         <v>0.91</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU102" t="n">
         <v>0.61</v>
@@ -21609,7 +21609,7 @@
         <v>2.42</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU104" t="n">
         <v>1.93</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU106" t="n">
         <v>1.14</v>
@@ -22824,7 +22824,7 @@
         <v>1.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT110" t="n">
         <v>1.8</v>
@@ -23027,7 +23027,7 @@
         <v>0.86</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23436,7 +23436,7 @@
         <v>2.64</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU113" t="n">
         <v>1.9</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT115" t="n">
         <v>1.6</v>
@@ -24042,7 +24042,7 @@
         <v>0.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>0.27</v>
@@ -24654,7 +24654,7 @@
         <v>1.58</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU119" t="n">
         <v>1.54</v>
@@ -25060,7 +25060,7 @@
         <v>1.45</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU121" t="n">
         <v>1.43</v>
@@ -25260,7 +25260,7 @@
         <v>0.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT122" t="n">
         <v>0.45</v>
@@ -25666,7 +25666,7 @@
         <v>1.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT124" t="n">
         <v>1.6</v>
@@ -25869,10 +25869,10 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU125" t="n">
         <v>1.76</v>
@@ -26075,7 +26075,7 @@
         <v>1.45</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU126" t="n">
         <v>1.39</v>
@@ -27293,7 +27293,7 @@
         <v>1.4</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU132" t="n">
         <v>1.39</v>
@@ -27696,7 +27696,7 @@
         <v>1.29</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT134" t="n">
         <v>1.36</v>
@@ -27902,7 +27902,7 @@
         <v>1.58</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU135" t="n">
         <v>1.46</v>
@@ -28305,7 +28305,7 @@
         <v>1.22</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT137" t="n">
         <v>1.09</v>
@@ -28711,7 +28711,7 @@
         <v>0.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT139" t="n">
         <v>0.45</v>
@@ -29120,7 +29120,7 @@
         <v>0.91</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU141" t="n">
         <v>0.85</v>
@@ -29323,7 +29323,7 @@
         <v>1.45</v>
       </c>
       <c r="AT142" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU142" t="n">
         <v>1.48</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT143" t="n">
         <v>0.82</v>
@@ -29929,7 +29929,7 @@
         <v>2.14</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT145" t="n">
         <v>2</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU146" t="n">
         <v>1.06</v>
@@ -30338,7 +30338,7 @@
         <v>1.27</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.14</v>
@@ -30541,7 +30541,7 @@
         <v>2.64</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU148" t="n">
         <v>1.8</v>
@@ -31962,7 +31962,7 @@
         <v>2.36</v>
       </c>
       <c r="AT155" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU155" t="n">
         <v>1.75</v>
@@ -32162,7 +32162,7 @@
         <v>1.67</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT156" t="n">
         <v>1.6</v>
@@ -32365,7 +32365,7 @@
         <v>2</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT157" t="n">
         <v>2</v>
@@ -33177,7 +33177,7 @@
         <v>0.5</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT161" t="n">
         <v>0.55</v>
@@ -33383,7 +33383,7 @@
         <v>1.45</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU162" t="n">
         <v>1.44</v>
@@ -33583,7 +33583,7 @@
         <v>2.2</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT163" t="n">
         <v>2</v>
@@ -33789,7 +33789,7 @@
         <v>1.58</v>
       </c>
       <c r="AT164" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU164" t="n">
         <v>1.43</v>
@@ -34398,7 +34398,7 @@
         <v>2.09</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU167" t="n">
         <v>2.06</v>
@@ -34804,7 +34804,7 @@
         <v>1</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU169" t="n">
         <v>1.19</v>
@@ -35207,7 +35207,7 @@
         <v>2.11</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT171" t="n">
         <v>2</v>
@@ -35613,7 +35613,7 @@
         <v>2.09</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT173" t="n">
         <v>2</v>
@@ -36277,6 +36277,818 @@
       </c>
       <c r="BK176" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4622057</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45025.66666666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>23</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Al Ittifaq</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>11</v>
+      </c>
+      <c r="R177" t="n">
+        <v>4</v>
+      </c>
+      <c r="S177" t="n">
+        <v>15</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V177" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X177" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4622058</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45025.66666666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Al Batin</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>3</v>
+      </c>
+      <c r="L178" t="n">
+        <v>3</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" t="n">
+        <v>5</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['6', '42', '77']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['38', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>6</v>
+      </c>
+      <c r="S178" t="n">
+        <v>11</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V178" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4622063</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45025.66666666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>1</v>
+      </c>
+      <c r="R179" t="n">
+        <v>7</v>
+      </c>
+      <c r="S179" t="n">
+        <v>8</v>
+      </c>
+      <c r="T179" t="n">
+        <v>8</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4622059</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45025.70833333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>23</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['20', '30']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>5</v>
+      </c>
+      <c r="R180" t="n">
+        <v>9</v>
+      </c>
+      <c r="S180" t="n">
+        <v>14</v>
+      </c>
+      <c r="T180" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Saudi Arabia Professional League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>0.91</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.09</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT12" t="n">
         <v>0.45</v>
@@ -3339,7 +3339,7 @@
         <v>1.45</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT15" t="n">
         <v>0.27</v>
@@ -4354,7 +4354,7 @@
         <v>1.27</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU19" t="n">
         <v>1.25</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT23" t="n">
         <v>2.5</v>
@@ -5775,7 +5775,7 @@
         <v>1.45</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU26" t="n">
         <v>1.86</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>0.45</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU34" t="n">
         <v>0.55</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>2</v>
@@ -10444,7 +10444,7 @@
         <v>2.36</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU49" t="n">
         <v>1.75</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10847,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
         <v>1.8</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT54" t="n">
         <v>2.5</v>
@@ -11865,7 +11865,7 @@
         <v>1.27</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU56" t="n">
         <v>1.21</v>
@@ -12068,7 +12068,7 @@
         <v>2.64</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU57" t="n">
         <v>1.97</v>
@@ -13892,7 +13892,7 @@
         <v>1.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT66" t="n">
         <v>0.83</v>
@@ -14301,7 +14301,7 @@
         <v>1.18</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU68" t="n">
         <v>1.27</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT70" t="n">
         <v>2</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
         <v>0.17</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT72" t="n">
         <v>0.45</v>
@@ -16940,7 +16940,7 @@
         <v>1.42</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU81" t="n">
         <v>2.02</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT85" t="n">
         <v>2</v>
@@ -18155,7 +18155,7 @@
         <v>1.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>1.09</v>
@@ -18358,7 +18358,7 @@
         <v>1.2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT88" t="n">
         <v>1.36</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU92" t="n">
         <v>1.11</v>
@@ -20185,7 +20185,7 @@
         <v>2.33</v>
       </c>
       <c r="AS97" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT97" t="n">
         <v>2</v>
@@ -21403,7 +21403,7 @@
         <v>1.17</v>
       </c>
       <c r="AS103" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT103" t="n">
         <v>1.09</v>
@@ -21809,10 +21809,10 @@
         <v>0.33</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU105" t="n">
         <v>2.13</v>
@@ -22621,10 +22621,10 @@
         <v>1.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU109" t="n">
         <v>1.38</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT112" t="n">
         <v>0.82</v>
@@ -23842,7 +23842,7 @@
         <v>1.42</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU115" t="n">
         <v>1.95</v>
@@ -24857,7 +24857,7 @@
         <v>1.4</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU120" t="n">
         <v>1.36</v>
@@ -25669,7 +25669,7 @@
         <v>1.18</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU124" t="n">
         <v>1.46</v>
@@ -26275,7 +26275,7 @@
         <v>1.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT127" t="n">
         <v>1.09</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT128" t="n">
         <v>0.82</v>
@@ -26684,7 +26684,7 @@
         <v>2.36</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU129" t="n">
         <v>1.58</v>
@@ -29320,7 +29320,7 @@
         <v>2.13</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT142" t="n">
         <v>2</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT146" t="n">
         <v>0.83</v>
@@ -30741,7 +30741,7 @@
         <v>2.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT149" t="n">
         <v>2</v>
@@ -30947,7 +30947,7 @@
         <v>2.42</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU150" t="n">
         <v>1.83</v>
@@ -31147,10 +31147,10 @@
         <v>1.5</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU151" t="n">
         <v>2.13</v>
@@ -32165,7 +32165,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU156" t="n">
         <v>1.31</v>
@@ -33180,7 +33180,7 @@
         <v>1.18</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU161" t="n">
         <v>1.44</v>
@@ -33380,7 +33380,7 @@
         <v>0.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT162" t="n">
         <v>0.17</v>
@@ -33989,7 +33989,7 @@
         <v>1.89</v>
       </c>
       <c r="AS165" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT165" t="n">
         <v>1.8</v>
@@ -34395,7 +34395,7 @@
         <v>0.9</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT167" t="n">
         <v>0.83</v>
@@ -34598,7 +34598,7 @@
         <v>0.33</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT168" t="n">
         <v>0.27</v>
@@ -37089,6 +37089,615 @@
       </c>
       <c r="BK180" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4622060</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45026.66666666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['37', '45+8', '53']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>6</v>
+      </c>
+      <c r="S181" t="n">
+        <v>6</v>
+      </c>
+      <c r="T181" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4622061</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45026.66666666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Al Ta'ee</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>4</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['57', '72']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['25', '35']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>11</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1</v>
+      </c>
+      <c r="S182" t="n">
+        <v>12</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V182" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4622062</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Saudi Arabia Professional League</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45026.66666666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Dhamk</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Al Adalh</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2</v>
+      </c>
+      <c r="K183" t="n">
+        <v>4</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>4</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['16', '32']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['28', '30']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>6</v>
+      </c>
+      <c r="R183" t="n">
+        <v>6</v>
+      </c>
+      <c r="S183" t="n">
+        <v>12</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V183" t="n">
+        <v>5</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
